--- a/ReceptionCentreNew/wwwroot/excel/report/statistic_appeals.xlsx
+++ b/ReceptionCentreNew/wwwroot/excel/report/statistic_appeals.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -25,31 +20,34 @@
 </t>
   </si>
   <si>
-    <t>Сотрудник:</t>
+    <t>Статистика обращений</t>
   </si>
   <si>
     <t>Период:</t>
   </si>
   <si>
-    <t>Дата:</t>
+    <t>Статус:</t>
   </si>
   <si>
     <t>Распечатал:</t>
   </si>
   <si>
-    <t>Тип:</t>
-  </si>
-  <si>
-    <t>Тип сложности:</t>
-  </si>
-  <si>
-    <t>Статус:</t>
+    <t>Сотрудник:</t>
   </si>
   <si>
     <t>Категория:</t>
   </si>
   <si>
+    <t>Дата:</t>
+  </si>
+  <si>
+    <t>Тип:</t>
+  </si>
+  <si>
     <t>Предмет обращения:</t>
+  </si>
+  <si>
+    <t>Тип сложности:</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -57,56 +55,41 @@
   <si>
     <t>Количество</t>
   </si>
-  <si>
-    <t>Статистика обращений</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -114,7 +97,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -122,39 +104,366 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -183,71 +492,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,131 +1115,126 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="120" zoomScaleNormal="100" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.1388888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.287037037037" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.9722222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.4722222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="17.4" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -639,7 +1244,8 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.32291666666666669" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.708661417322835" right="0.325" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>